--- a/corner_passes_and_shots.xlsx
+++ b/corner_passes_and_shots.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/user/Documents/GitHub/Set-pieces-db/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CA6CD003-3FE0-B947-998C-F5CBD0CFE94F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9751B9FB-1978-D145-BB1B-05D64292A152}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -8759,7 +8759,7 @@
   <dimension ref="A1:R1339"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="R2" sqref="R2:R1339"/>
+      <selection activeCell="R5" sqref="R5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
